--- a/PCB/soundcard v1.1_BOM.xlsx
+++ b/PCB/soundcard v1.1_BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="355">
   <si>
     <t>Description</t>
   </si>
@@ -1083,6 +1083,15 @@
   </si>
   <si>
     <t>Copyright 2017-2019 Artur Silva, Dario Bento, Paulo Carriço and Filipe Carvalho</t>
+  </si>
+  <si>
+    <t>Number of Through-Hole Parts</t>
+  </si>
+  <si>
+    <t>Number of SMT Parts</t>
+  </si>
+  <si>
+    <t>Number of Unique Parts (the number of BOM line items)</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1601,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1639,6 +1648,16 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2388,11 +2407,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2424,8 @@
     <col min="6" max="6" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4964,8 +4984,12 @@
       <c r="F104" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="6"/>
+      <c r="H104" s="2">
+        <v>105</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="J104" s="7"/>
       <c r="K104" s="6"/>
       <c r="L104" s="10"/>
@@ -4989,8 +5013,12 @@
       <c r="F105" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="6"/>
+      <c r="H105" s="2">
+        <v>216</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="J105" s="7"/>
       <c r="K105" s="6"/>
       <c r="L105" s="10"/>
@@ -5016,8 +5044,12 @@
       <c r="F106" s="10">
         <v>2575221</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="2"/>
+      <c r="H106" s="2">
+        <v>98</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="J106" s="7"/>
       <c r="K106" s="6"/>
       <c r="L106" s="10"/>
@@ -5028,19 +5060,19 @@
       <c r="Q106" s="3"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="6">
-        <v>1</v>
-      </c>
-      <c r="D107" s="7" t="s">
+      <c r="C107" s="21">
+        <v>1</v>
+      </c>
+      <c r="D107" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="10" t="s">
+      <c r="E107" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5285,48 +5317,48 @@
       <c r="E122" s="8"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H126" s="13"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="H128" s="13"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>351</v>
       </c>
-      <c r="H127" s="13"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="10"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="6"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="10"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H129" s="13"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134"/>
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
       <c r="E134" s="6"/>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
       <c r="E135" s="6"/>
       <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F123"/>
